--- a/biology/Mycologie/Neocosmospora_solani/Neocosmospora_solani.xlsx
+++ b/biology/Mycologie/Neocosmospora_solani/Neocosmospora_solani.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Neocosmospora solani (synonymes Nectria haematococca, Haematonectria haematococca) est une espèce de champignons ascomycètes parasites de plantes, de la famille des Nectriaceae.
 Il est plus connu sous sa forme asexuée : Fusarium solani qui, en se combinant avec des bactéries (par exemple : Rhizobium radiobacter, Aeromonas et Pseudomonas) peut former des biofilms très résistants au chlore, dans les piscines y compris.
@@ -513,6 +525,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -538,11 +552,13 @@
           <t>Incidences</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Fusarium solani peut donner de façon rarissime des petites pathologies de l'ongle, mais seulement chez les personnes dont les défenses immunitaires sont très affaiblies [2].
-Sous une lentille de contact, il semble aussi pouvoir exceptionnellement provoquer des kératites[3],[4],[5]
-Il peut donner des formes graves de méningites nosocomiales[6].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Fusarium solani peut donner de façon rarissime des petites pathologies de l'ongle, mais seulement chez les personnes dont les défenses immunitaires sont très affaiblies .
+Sous une lentille de contact, il semble aussi pouvoir exceptionnellement provoquer des kératites
+Il peut donner des formes graves de méningites nosocomiales.
 </t>
         </is>
       </c>
@@ -571,9 +587,11 @@
           <t>Utilisations</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce fait partie d'un groupe de quelques champignons dont la capacité à biodégrader (en incubateur) le benzo(a)pyrène a été démontrée (30 % du polluant biodégradé en 9 jours, en incubateur... d'autres espèces de ce groupe sont Penicillium cnaescens, Cladosporium cladosporioides et Talaromyces helicus)[7].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce fait partie d'un groupe de quelques champignons dont la capacité à biodégrader (en incubateur) le benzo(a)pyrène a été démontrée (30 % du polluant biodégradé en 9 jours, en incubateur... d'autres espèces de ce groupe sont Penicillium cnaescens, Cladosporium cladosporioides et Talaromyces helicus).
 </t>
         </is>
       </c>
@@ -602,7 +620,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Cucurbitaria haematococca (Berk. &amp; Broome) Kuntze
 Dialonectria haematococca (Berk. &amp; Broome) Cooke
@@ -641,7 +661,7 @@
 Nectria cancri f. aurantii Av.-Saccá
 Nectria haematococca Berk. &amp; Broome
 Nectria haematococca f.sp. piperis F.C.Albuq. &amp; Ferraz
-Neocosmospora martii (Appel &amp; Wollenw.) Sand.-Denis &amp; Crous[8]</t>
+Neocosmospora martii (Appel &amp; Wollenw.) Sand.-Denis &amp; Crous</t>
         </is>
       </c>
     </row>
